--- a/biology/Médecine/Ernst_Rothlin/Ernst_Rothlin.xlsx
+++ b/biology/Médecine/Ernst_Rothlin/Ernst_Rothlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst Rothlin, né le 27 décembre 1888 à Lachen, canton de Schwytz et décédé le 20 septembre 1972 à Rigi, canton de Lucerne, était un chimiste et pharmacologue suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir suivi les cours à l'école de l'abbaye de Schwyz, il alla au Gymnasium (lycée) de Saint-Gall. Il étudie ensuite la médecine à Genève, Berlin, Kiel, pour finir à Zurich où il obtient son doctorat en 1914.
 Après avoir été assistant en médecine à Zurich, il va suivre des cours de chimie et de physiologie à Genève. Il revient à Zurich comme assistant du professeur Walter Rudolf Hess (1881-1973). Il marque alors son intérêt pour la biochimie et la pharmacologie. Il devient en 1920 maître de conférence en physiologie.
@@ -525,7 +539,7 @@
 Digoxine-Sandoz, contre l'insuffisance cardiaque.
 Il devient professeur de pharmacologie de l'Université de Bâle en 1934.
 Il est membre fondateur de l'Académie suisse des sciences médicales (ASSM) en 1943. Il en a été le trésorier jusqu'en 1952, puis membre honoraire à partir de 1959.
-Après son départ de Sandoz, en 1956, il a participé à la création de l'Association internationale pour la psychopharmacologie (Collegium Internationale Neuropsychopharmacologicum, CINP)[1] puis, en 1958, de la revue "Psychopharmacologia"[2].
+Après son départ de Sandoz, en 1956, il a participé à la création de l'Association internationale pour la psychopharmacologie (Collegium Internationale Neuropsychopharmacologicum, CINP) puis, en 1958, de la revue "Psychopharmacologia".
 </t>
         </is>
       </c>
@@ -554,10 +568,12 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Docteur honoris causa des universités de Lausanne, en 1948, et de Graz, en 1955.
-Paracelusring[3] de la ville de Villach en 1957.
+Paracelusring de la ville de Villach en 1957.
 Président d'honneur du Collegium Internationale Neuropsychopharmacologicum (Internationale Gesellschaft für Psychopharmakologie - International College of Neuro-Psychopharmacology)</t>
         </is>
       </c>
